--- a/data/operator_shares_by_generation.xlsx
+++ b/data/operator_shares_by_generation.xlsx
@@ -461,92 +461,92 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>BertMLM_count</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>BertMLM_percentage</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>BertMLM_share</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>OnePointCrossover_count</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>OnePointCrossover_percentage</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>OnePointCrossover_share</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>InstructionPreservingCrossover_count</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>InstructionPreservingCrossover_percentage</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>InstructionPreservingCrossover_share</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>LLMBasedParaphrasing_count</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>LLMBasedParaphrasing_percentage</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>LLMBasedParaphrasing_share</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>InstructionPreservingCrossover_count</t>
+          <t>BackTranslation_JA_count</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>InstructionPreservingCrossover_percentage</t>
+          <t>BackTranslation_JA_percentage</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>InstructionPreservingCrossover_share</t>
+          <t>BackTranslation_JA_share</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>OnePointCrossover_count</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>OnePointCrossover_percentage</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>OnePointCrossover_share</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BertMLM_count</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>BertMLM_percentage</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>BertMLM_share</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>LLMBackTranslation_HI_count</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>LLMBackTranslation_HI_percentage</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>LLMBackTranslation_HI_share</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>BackTranslation_JA_count</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>BackTranslation_JA_percentage</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>BackTranslation_JA_share</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -839,23 +839,23 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>10</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.1</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
@@ -866,22 +866,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>1</v>
@@ -982,22 +982,22 @@
         <v>0.1</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M4" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.1</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>0.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="T4" t="n">
+      <c r="W4" t="n">
         <v>0.03333333333333333</v>
-      </c>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
-      <c r="V4" t="n">
-        <v>10</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.1</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -1125,22 +1125,22 @@
         <v>0.125</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M5" t="n">
         <v>41.66666666666667</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>0.4166666666666667</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3</v>
-      </c>
-      <c r="M5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.125</v>
       </c>
       <c r="O5" t="n">
         <v>3</v>
@@ -1152,22 +1152,22 @@
         <v>0.125</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>4.166666666666666</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1268,22 +1268,22 @@
         <v>0.1304347826086956</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
+        <v>13.04347826086956</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="L6" t="n">
+        <v>10</v>
+      </c>
+      <c r="M6" t="n">
         <v>43.47826086956522</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>0.4347826086956522</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.1304347826086956</v>
       </c>
       <c r="O6" t="n">
         <v>3</v>
@@ -1295,22 +1295,22 @@
         <v>0.1304347826086956</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1402,58 +1402,58 @@
         <v>0.05</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>10</v>
+      </c>
+      <c r="M7" t="n">
+        <v>50</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
         <v>15</v>
       </c>
-      <c r="H7" t="n">
+      <c r="Q7" t="n">
         <v>0.15</v>
       </c>
-      <c r="I7" t="n">
-        <v>10</v>
-      </c>
-      <c r="J7" t="n">
-        <v>50</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>10</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.1</v>
-      </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>0.1304347826086956</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
+        <v>13.04347826086956</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10</v>
+      </c>
+      <c r="M8" t="n">
         <v>43.47826086956522</v>
       </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
         <v>0.4347826086956522</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3</v>
-      </c>
-      <c r="M8" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.1304347826086956</v>
       </c>
       <c r="O8" t="n">
         <v>3</v>
@@ -1697,22 +1697,22 @@
         <v>0.12</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
+        <v>12</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" t="n">
         <v>40</v>
       </c>
-      <c r="K9" t="n">
+      <c r="N9" t="n">
         <v>0.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3</v>
-      </c>
-      <c r="M9" t="n">
-        <v>12</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.12</v>
       </c>
       <c r="O9" t="n">
         <v>3</v>
@@ -1724,22 +1724,22 @@
         <v>0.12</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1831,58 +1831,58 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
+        <v>6.896551724137931</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>20.68965517241379</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="L10" t="n">
+        <v>10</v>
+      </c>
+      <c r="M10" t="n">
+        <v>34.48275862068966</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" t="n">
         <v>10.3448275862069</v>
       </c>
-      <c r="H10" t="n">
+      <c r="Q10" t="n">
         <v>0.103448275862069</v>
       </c>
-      <c r="I10" t="n">
-        <v>10</v>
-      </c>
-      <c r="J10" t="n">
-        <v>34.48275862068966</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.3448275862068966</v>
-      </c>
-      <c r="L10" t="n">
-        <v>6</v>
-      </c>
-      <c r="M10" t="n">
-        <v>20.68965517241379</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.2068965517241379</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>6.896551724137931</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.06896551724137931</v>
-      </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.103448275862069</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1974,58 +1974,58 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" t="n">
+        <v>41.66666666666667</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" t="n">
         <v>12.5</v>
       </c>
-      <c r="H11" t="n">
+      <c r="Q11" t="n">
         <v>0.125</v>
       </c>
-      <c r="I11" t="n">
-        <v>10</v>
-      </c>
-      <c r="J11" t="n">
-        <v>41.66666666666667</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
         <v>8.333333333333332</v>
       </c>
-      <c r="N11" t="n">
+      <c r="T11" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -2117,58 +2117,58 @@
         <v>0.04166666666666666</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
+        <v>4.166666666666666</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
         <v>8.333333333333332</v>
       </c>
-      <c r="H12" t="n">
+      <c r="K12" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="I12" t="n">
-        <v>10</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" t="n">
         <v>41.66666666666667</v>
       </c>
-      <c r="K12" t="n">
+      <c r="N12" t="n">
         <v>0.4166666666666667</v>
       </c>
-      <c r="L12" t="n">
-        <v>2</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
         <v>8.333333333333332</v>
       </c>
-      <c r="N12" t="n">
+      <c r="Q12" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.166666666666666</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.04166666666666666</v>
-      </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -2269,22 +2269,22 @@
         <v>0.1153846153846154</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
+        <v>11.53846153846154</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="L13" t="n">
+        <v>10</v>
+      </c>
+      <c r="M13" t="n">
         <v>38.46153846153847</v>
       </c>
-      <c r="K13" t="n">
+      <c r="N13" t="n">
         <v>0.3846153846153846</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3</v>
-      </c>
-      <c r="M13" t="n">
-        <v>11.53846153846154</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.1153846153846154</v>
       </c>
       <c r="O13" t="n">
         <v>3</v>
@@ -2296,22 +2296,22 @@
         <v>0.1153846153846154</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>3.846153846153846</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.03846153846153846</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -2403,58 +2403,58 @@
         <v>0.03703703703703703</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
+        <v>7.407407407407407</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
         <v>11.11111111111111</v>
       </c>
-      <c r="H14" t="n">
+      <c r="K14" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="I14" t="n">
-        <v>10</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
+        <v>10</v>
+      </c>
+      <c r="M14" t="n">
         <v>37.03703703703704</v>
       </c>
-      <c r="K14" t="n">
+      <c r="N14" t="n">
         <v>0.3703703703703703</v>
       </c>
-      <c r="L14" t="n">
-        <v>3</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
+        <v>3</v>
+      </c>
+      <c r="P14" t="n">
         <v>11.11111111111111</v>
       </c>
-      <c r="N14" t="n">
+      <c r="Q14" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="O14" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
         <v>7.407407407407407</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="T14" t="n">
         <v>0.07407407407407407</v>
       </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.407407407407407</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.07407407407407407</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -2555,22 +2555,22 @@
         <v>0.103448275862069</v>
       </c>
       <c r="I15" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
+        <v>6.896551724137931</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="L15" t="n">
+        <v>10</v>
+      </c>
+      <c r="M15" t="n">
         <v>34.48275862068966</v>
       </c>
-      <c r="K15" t="n">
+      <c r="N15" t="n">
         <v>0.3448275862068966</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>6.896551724137931</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.06896551724137931</v>
       </c>
       <c r="O15" t="n">
         <v>3</v>
@@ -2582,22 +2582,22 @@
         <v>0.103448275862069</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.103448275862069</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -2698,22 +2698,22 @@
         <v>0.08823529411764706</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
+        <v>11.76470588235294</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="L16" t="n">
+        <v>10</v>
+      </c>
+      <c r="M16" t="n">
         <v>29.41176470588236</v>
       </c>
-      <c r="K16" t="n">
+      <c r="N16" t="n">
         <v>0.2941176470588235</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4</v>
-      </c>
-      <c r="M16" t="n">
-        <v>11.76470588235294</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.1176470588235294</v>
       </c>
       <c r="O16" t="n">
         <v>3</v>
@@ -2725,22 +2725,22 @@
         <v>0.08823529411764706</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>8.823529411764707</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>8.823529411764707</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.08823529411764706</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -2832,58 +2832,58 @@
         <v>0.03703703703703703</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
+        <v>3.703703703703703</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
         <v>11.11111111111111</v>
       </c>
-      <c r="H17" t="n">
+      <c r="K17" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="I17" t="n">
+      <c r="L17" t="n">
         <v>9</v>
       </c>
-      <c r="J17" t="n">
+      <c r="M17" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="K17" t="n">
+      <c r="N17" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="L17" t="n">
-        <v>3</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="n">
         <v>11.11111111111111</v>
       </c>
-      <c r="N17" t="n">
+      <c r="Q17" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.703703703703703</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.03703703703703703</v>
-      </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2984,22 +2984,22 @@
         <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
+        <v>10</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>10</v>
+      </c>
+      <c r="M18" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="K18" t="n">
+      <c r="N18" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>10</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.1</v>
       </c>
       <c r="O18" t="n">
         <v>3</v>
@@ -3011,22 +3011,22 @@
         <v>0.1</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -3118,58 +3118,58 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="L19" t="n">
+        <v>10</v>
+      </c>
+      <c r="M19" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" t="n">
         <v>8.333333333333332</v>
       </c>
-      <c r="H19" t="n">
+      <c r="Q19" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.05555555555555555</v>
-      </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -3261,58 +3261,58 @@
         <v>0.03571428571428571</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
         <v>10.71428571428571</v>
       </c>
-      <c r="H20" t="n">
+      <c r="K20" t="n">
         <v>0.1071428571428571</v>
       </c>
-      <c r="I20" t="n">
-        <v>10</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
+        <v>10</v>
+      </c>
+      <c r="M20" t="n">
         <v>35.71428571428572</v>
       </c>
-      <c r="K20" t="n">
+      <c r="N20" t="n">
         <v>0.3571428571428572</v>
       </c>
-      <c r="L20" t="n">
-        <v>3</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="n">
         <v>10.71428571428571</v>
       </c>
-      <c r="N20" t="n">
+      <c r="Q20" t="n">
         <v>0.1071428571428571</v>
       </c>
-      <c r="O20" t="n">
-        <v>2</v>
-      </c>
-      <c r="P20" t="n">
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
         <v>7.142857142857142</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="T20" t="n">
         <v>0.07142857142857142</v>
       </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -3404,58 +3404,58 @@
         <v>0.03571428571428571</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="L21" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" t="n">
+        <v>35.71428571428572</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" t="n">
         <v>10.71428571428571</v>
       </c>
-      <c r="H21" t="n">
+      <c r="Q21" t="n">
         <v>0.1071428571428571</v>
       </c>
-      <c r="I21" t="n">
-        <v>10</v>
-      </c>
-      <c r="J21" t="n">
-        <v>35.71428571428572</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M21" t="n">
-        <v>7.142857142857142</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>7.142857142857142</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.07142857142857142</v>
-      </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>10.71428571428571</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1071428571428571</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -3547,58 +3547,58 @@
         <v>0.03571428571428571</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.571428571428571</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10</v>
+      </c>
+      <c r="M22" t="n">
+        <v>35.71428571428572</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" t="n">
         <v>10.71428571428571</v>
       </c>
-      <c r="H22" t="n">
+      <c r="Q22" t="n">
         <v>0.1071428571428571</v>
       </c>
-      <c r="I22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J22" t="n">
-        <v>35.71428571428572</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3.571428571428571</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2</v>
-      </c>
-      <c r="P22" t="n">
-        <v>7.142857142857142</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.07142857142857142</v>
-      </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>10.71428571428571</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.1071428571428571</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -3690,58 +3690,58 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
+        <v>4.166666666666666</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="L23" t="n">
+        <v>10</v>
+      </c>
+      <c r="M23" t="n">
+        <v>41.66666666666667</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3</v>
+      </c>
+      <c r="P23" t="n">
         <v>12.5</v>
       </c>
-      <c r="H23" t="n">
+      <c r="Q23" t="n">
         <v>0.125</v>
       </c>
-      <c r="I23" t="n">
-        <v>10</v>
-      </c>
-      <c r="J23" t="n">
-        <v>41.66666666666667</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2</v>
-      </c>
-      <c r="M23" t="n">
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
         <v>8.333333333333332</v>
       </c>
-      <c r="N23" t="n">
+      <c r="T23" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4.166666666666666</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.04166666666666666</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -3842,22 +3842,22 @@
         <v>0.075</v>
       </c>
       <c r="I24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J24" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="L24" t="n">
+        <v>10</v>
+      </c>
+      <c r="M24" t="n">
         <v>25</v>
       </c>
-      <c r="K24" t="n">
+      <c r="N24" t="n">
         <v>0.25</v>
-      </c>
-      <c r="L24" t="n">
-        <v>11</v>
-      </c>
-      <c r="M24" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.275</v>
       </c>
       <c r="O24" t="n">
         <v>3</v>
@@ -3869,22 +3869,22 @@
         <v>0.075</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
         <v>2.5</v>
       </c>
-      <c r="T24" t="n">
+      <c r="W24" t="n">
         <v>0.025</v>
-      </c>
-      <c r="U24" t="n">
-        <v>3</v>
-      </c>
-      <c r="V24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0.075</v>
       </c>
       <c r="X24" t="n">
         <v>1</v>
@@ -3976,58 +3976,58 @@
         <v>0.1</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>10</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H25" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="L25" t="n">
+        <v>10</v>
+      </c>
+      <c r="M25" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q25" t="n">
         <v>0.1</v>
       </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2</v>
-      </c>
-      <c r="M25" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="O25" t="n">
-        <v>2</v>
-      </c>
-      <c r="P25" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.06666666666666667</v>
-      </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -4119,58 +4119,58 @@
         <v>0.1290322580645161</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" t="n">
         <v>9.67741935483871</v>
       </c>
-      <c r="H26" t="n">
+      <c r="K26" t="n">
         <v>0.09677419354838709</v>
       </c>
-      <c r="I26" t="n">
-        <v>10</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
+        <v>10</v>
+      </c>
+      <c r="M26" t="n">
         <v>32.25806451612903</v>
       </c>
-      <c r="K26" t="n">
+      <c r="N26" t="n">
         <v>0.3225806451612903</v>
       </c>
-      <c r="L26" t="n">
-        <v>3</v>
-      </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
+        <v>3</v>
+      </c>
+      <c r="P26" t="n">
         <v>9.67741935483871</v>
       </c>
-      <c r="N26" t="n">
+      <c r="Q26" t="n">
         <v>0.09677419354838709</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0.09677419354838709</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -4262,58 +4262,58 @@
         <v>0.1612903225806452</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
+        <v>6.451612903225806</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.225806451612903</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="L27" t="n">
+        <v>10</v>
+      </c>
+      <c r="M27" t="n">
+        <v>32.25806451612903</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3</v>
+      </c>
+      <c r="P27" t="n">
         <v>9.67741935483871</v>
       </c>
-      <c r="H27" t="n">
+      <c r="Q27" t="n">
         <v>0.09677419354838709</v>
       </c>
-      <c r="I27" t="n">
-        <v>10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>32.25806451612903</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.3225806451612903</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="n">
-        <v>3.225806451612903</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="O27" t="n">
-        <v>2</v>
-      </c>
-      <c r="P27" t="n">
-        <v>6.451612903225806</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.06451612903225806</v>
-      </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0.09677419354838709</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -4405,58 +4405,58 @@
         <v>0.1</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>10</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H28" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="L28" t="n">
+        <v>10</v>
+      </c>
+      <c r="M28" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3</v>
+      </c>
+      <c r="P28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q28" t="n">
         <v>0.1</v>
       </c>
-      <c r="I28" t="n">
-        <v>10</v>
-      </c>
-      <c r="J28" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2</v>
-      </c>
-      <c r="M28" t="n">
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
         <v>6.666666666666667</v>
       </c>
-      <c r="N28" t="n">
+      <c r="T28" t="n">
         <v>0.06666666666666667</v>
       </c>
-      <c r="O28" t="n">
-        <v>2</v>
-      </c>
-      <c r="P28" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -4548,58 +4548,58 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>8</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L29" t="n">
+        <v>10</v>
+      </c>
+      <c r="M29" t="n">
+        <v>40</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3</v>
+      </c>
+      <c r="P29" t="n">
         <v>12</v>
       </c>
-      <c r="H29" t="n">
+      <c r="Q29" t="n">
         <v>0.12</v>
       </c>
-      <c r="I29" t="n">
-        <v>10</v>
-      </c>
-      <c r="J29" t="n">
-        <v>40</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2</v>
-      </c>
-      <c r="M29" t="n">
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
         <v>8</v>
       </c>
-      <c r="N29" t="n">
+      <c r="T29" t="n">
         <v>0.08</v>
       </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -4691,58 +4691,58 @@
         <v>0.03571428571428571</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
+        <v>10.71428571428571</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>10.71428571428571</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="L30" t="n">
+        <v>10</v>
+      </c>
+      <c r="M30" t="n">
+        <v>35.71428571428572</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
         <v>7.142857142857142</v>
       </c>
-      <c r="H30" t="n">
+      <c r="Q30" t="n">
         <v>0.07142857142857142</v>
       </c>
-      <c r="I30" t="n">
-        <v>10</v>
-      </c>
-      <c r="J30" t="n">
-        <v>35.71428571428572</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
         <v>10.71428571428571</v>
       </c>
-      <c r="N30" t="n">
+      <c r="T30" t="n">
         <v>0.1071428571428571</v>
       </c>
-      <c r="O30" t="n">
-        <v>3</v>
-      </c>
-      <c r="P30" t="n">
-        <v>10.71428571428571</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>10.71428571428571</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0.1071428571428571</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -4834,58 +4834,58 @@
         <v>0.1875</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="L31" t="n">
+        <v>10</v>
+      </c>
+      <c r="M31" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3</v>
+      </c>
+      <c r="P31" t="n">
         <v>9.375</v>
       </c>
-      <c r="H31" t="n">
+      <c r="Q31" t="n">
         <v>0.09375</v>
       </c>
-      <c r="I31" t="n">
-        <v>10</v>
-      </c>
-      <c r="J31" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2</v>
-      </c>
-      <c r="M31" t="n">
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
         <v>6.25</v>
       </c>
-      <c r="N31" t="n">
+      <c r="T31" t="n">
         <v>0.0625</v>
       </c>
-      <c r="O31" t="n">
-        <v>2</v>
-      </c>
-      <c r="P31" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -4977,58 +4977,58 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
+        <v>6.896551724137931</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
         <v>10.3448275862069</v>
       </c>
-      <c r="H32" t="n">
+      <c r="K32" t="n">
         <v>0.103448275862069</v>
       </c>
-      <c r="I32" t="n">
-        <v>10</v>
-      </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
+        <v>10</v>
+      </c>
+      <c r="M32" t="n">
         <v>34.48275862068966</v>
       </c>
-      <c r="K32" t="n">
+      <c r="N32" t="n">
         <v>0.3448275862068966</v>
       </c>
-      <c r="L32" t="n">
-        <v>3</v>
-      </c>
-      <c r="M32" t="n">
+      <c r="O32" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" t="n">
         <v>10.3448275862069</v>
       </c>
-      <c r="N32" t="n">
+      <c r="Q32" t="n">
         <v>0.103448275862069</v>
       </c>
-      <c r="O32" t="n">
-        <v>2</v>
-      </c>
-      <c r="P32" t="n">
-        <v>6.896551724137931</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.06896551724137931</v>
-      </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0.103448275862069</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -5120,58 +5120,58 @@
         <v>0.2571428571428571</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
+        <v>5.714285714285714</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.857142857142857</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="L33" t="n">
+        <v>10</v>
+      </c>
+      <c r="M33" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3</v>
+      </c>
+      <c r="P33" t="n">
         <v>8.571428571428571</v>
       </c>
-      <c r="H33" t="n">
+      <c r="Q33" t="n">
         <v>0.08571428571428572</v>
       </c>
-      <c r="I33" t="n">
-        <v>10</v>
-      </c>
-      <c r="J33" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="n">
-        <v>2.857142857142857</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="O33" t="n">
-        <v>2</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5.714285714285714</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.05714285714285714</v>
-      </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>8.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0.08571428571428572</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -5272,22 +5272,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="I34" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="L34" t="n">
+        <v>10</v>
+      </c>
+      <c r="M34" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="K34" t="n">
+      <c r="N34" t="n">
         <v>0.2777777777777778</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5</v>
-      </c>
-      <c r="M34" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.1388888888888889</v>
       </c>
       <c r="O34" t="n">
         <v>3</v>
@@ -5299,22 +5299,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -5415,22 +5415,22 @@
         <v>0.1071428571428571</v>
       </c>
       <c r="I35" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
+        <v>10.71428571428571</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="L35" t="n">
+        <v>10</v>
+      </c>
+      <c r="M35" t="n">
         <v>35.71428571428572</v>
       </c>
-      <c r="K35" t="n">
+      <c r="N35" t="n">
         <v>0.3571428571428572</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3</v>
-      </c>
-      <c r="M35" t="n">
-        <v>10.71428571428571</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.1071428571428571</v>
       </c>
       <c r="O35" t="n">
         <v>3</v>
@@ -5442,22 +5442,22 @@
         <v>0.1071428571428571</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -5558,22 +5558,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="I36" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
+        <v>2.941176470588235</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="L36" t="n">
+        <v>10</v>
+      </c>
+      <c r="M36" t="n">
         <v>29.41176470588236</v>
       </c>
-      <c r="K36" t="n">
+      <c r="N36" t="n">
         <v>0.2941176470588235</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="n">
-        <v>2.941176470588235</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.02941176470588235</v>
       </c>
       <c r="O36" t="n">
         <v>2</v>
@@ -5585,22 +5585,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>8.823529411764707</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>8.823529411764707</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0.08823529411764706</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -5692,58 +5692,58 @@
         <v>0.2325581395348837</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
+        <v>4.651162790697675</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.04651162790697674</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>13.95348837209302</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.1395348837209302</v>
+      </c>
+      <c r="L37" t="n">
+        <v>10</v>
+      </c>
+      <c r="M37" t="n">
+        <v>23.25581395348837</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.2325581395348837</v>
+      </c>
+      <c r="O37" t="n">
+        <v>3</v>
+      </c>
+      <c r="P37" t="n">
         <v>6.976744186046512</v>
       </c>
-      <c r="H37" t="n">
+      <c r="Q37" t="n">
         <v>0.06976744186046512</v>
       </c>
-      <c r="I37" t="n">
-        <v>10</v>
-      </c>
-      <c r="J37" t="n">
-        <v>23.25581395348837</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="L37" t="n">
-        <v>6</v>
-      </c>
-      <c r="M37" t="n">
-        <v>13.95348837209302</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.1395348837209302</v>
-      </c>
-      <c r="O37" t="n">
-        <v>2</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4.651162790697675</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.04651162790697674</v>
-      </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>6.976744186046512</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.06976744186046512</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -5835,58 +5835,58 @@
         <v>0.1578947368421053</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
+        <v>5.263157894736842</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>13.1578947368421</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.131578947368421</v>
+      </c>
+      <c r="L38" t="n">
+        <v>10</v>
+      </c>
+      <c r="M38" t="n">
+        <v>26.31578947368421</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P38" t="n">
         <v>7.894736842105263</v>
       </c>
-      <c r="H38" t="n">
+      <c r="Q38" t="n">
         <v>0.07894736842105263</v>
       </c>
-      <c r="I38" t="n">
-        <v>10</v>
-      </c>
-      <c r="J38" t="n">
-        <v>26.31578947368421</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="L38" t="n">
-        <v>5</v>
-      </c>
-      <c r="M38" t="n">
-        <v>13.1578947368421</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.131578947368421</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.05263157894736842</v>
-      </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="U38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>7.894736842105263</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.07894736842105263</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -5987,22 +5987,22 @@
         <v>0.09375</v>
       </c>
       <c r="I39" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L39" t="n">
+        <v>10</v>
+      </c>
+      <c r="M39" t="n">
         <v>31.25</v>
       </c>
-      <c r="K39" t="n">
+      <c r="N39" t="n">
         <v>0.3125</v>
-      </c>
-      <c r="L39" t="n">
-        <v>4</v>
-      </c>
-      <c r="M39" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.125</v>
       </c>
       <c r="O39" t="n">
         <v>3</v>
@@ -6014,22 +6014,22 @@
         <v>0.09375</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="U39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -6121,58 +6121,58 @@
         <v>0.0625</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>15.625</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.15625</v>
+      </c>
+      <c r="L40" t="n">
+        <v>10</v>
+      </c>
+      <c r="M40" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" t="n">
         <v>9.375</v>
       </c>
-      <c r="H40" t="n">
+      <c r="Q40" t="n">
         <v>0.09375</v>
       </c>
-      <c r="I40" t="n">
-        <v>10</v>
-      </c>
-      <c r="J40" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5</v>
-      </c>
-      <c r="M40" t="n">
-        <v>15.625</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.15625</v>
-      </c>
-      <c r="O40" t="n">
-        <v>2</v>
-      </c>
-      <c r="P40" t="n">
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
         <v>6.25</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="T40" t="n">
         <v>0.0625</v>
       </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -6264,58 +6264,58 @@
         <v>0.08823529411764706</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
+        <v>2.941176470588235</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.02941176470588235</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>17.64705882352941</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="L41" t="n">
+        <v>10</v>
+      </c>
+      <c r="M41" t="n">
+        <v>29.41176470588236</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3</v>
+      </c>
+      <c r="P41" t="n">
         <v>8.823529411764707</v>
       </c>
-      <c r="H41" t="n">
+      <c r="Q41" t="n">
         <v>0.08823529411764706</v>
       </c>
-      <c r="I41" t="n">
-        <v>10</v>
-      </c>
-      <c r="J41" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="L41" t="n">
-        <v>6</v>
-      </c>
-      <c r="M41" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.1764705882352941</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2.941176470588235</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.02941176470588235</v>
-      </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>8.823529411764707</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>8.823529411764707</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.08823529411764706</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -6407,58 +6407,58 @@
         <v>0.21875</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="L42" t="n">
+        <v>10</v>
+      </c>
+      <c r="M42" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" t="n">
         <v>9.375</v>
       </c>
-      <c r="H42" t="n">
+      <c r="Q42" t="n">
         <v>0.09375</v>
       </c>
-      <c r="I42" t="n">
-        <v>10</v>
-      </c>
-      <c r="J42" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.03125</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.03125</v>
-      </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -6550,58 +6550,58 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
+        <v>5.88235294117647</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6</v>
+      </c>
+      <c r="J43" t="n">
+        <v>17.64705882352941</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="L43" t="n">
+        <v>10</v>
+      </c>
+      <c r="M43" t="n">
+        <v>29.41176470588236</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="O43" t="n">
+        <v>3</v>
+      </c>
+      <c r="P43" t="n">
         <v>8.823529411764707</v>
       </c>
-      <c r="H43" t="n">
+      <c r="Q43" t="n">
         <v>0.08823529411764706</v>
       </c>
-      <c r="I43" t="n">
-        <v>10</v>
-      </c>
-      <c r="J43" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="L43" t="n">
-        <v>6</v>
-      </c>
-      <c r="M43" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0.1764705882352941</v>
-      </c>
-      <c r="O43" t="n">
-        <v>2</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.05882352941176471</v>
-      </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>8.823529411764707</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>8.823529411764707</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.08823529411764706</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -6693,58 +6693,58 @@
         <v>0.1388888888888889</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>13.88888888888889</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="L44" t="n">
+        <v>10</v>
+      </c>
+      <c r="M44" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="O44" t="n">
+        <v>3</v>
+      </c>
+      <c r="P44" t="n">
         <v>8.333333333333332</v>
       </c>
-      <c r="H44" t="n">
+      <c r="Q44" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="I44" t="n">
-        <v>10</v>
-      </c>
-      <c r="J44" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="L44" t="n">
-        <v>5</v>
-      </c>
-      <c r="M44" t="n">
-        <v>13.88888888888889</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="O44" t="n">
-        <v>2</v>
-      </c>
-      <c r="P44" t="n">
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
         <v>5.555555555555555</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="T44" t="n">
         <v>0.05555555555555555</v>
       </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
       <c r="U44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>5.555555555555555</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -6836,58 +6836,58 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
+        <v>6.060606060606061</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" t="n">
         <v>9.090909090909092</v>
       </c>
-      <c r="H45" t="n">
+      <c r="K45" t="n">
         <v>0.09090909090909091</v>
       </c>
-      <c r="I45" t="n">
-        <v>10</v>
-      </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
+        <v>10</v>
+      </c>
+      <c r="M45" t="n">
         <v>30.3030303030303</v>
       </c>
-      <c r="K45" t="n">
+      <c r="N45" t="n">
         <v>0.303030303030303</v>
       </c>
-      <c r="L45" t="n">
-        <v>3</v>
-      </c>
-      <c r="M45" t="n">
+      <c r="O45" t="n">
+        <v>3</v>
+      </c>
+      <c r="P45" t="n">
         <v>9.090909090909092</v>
       </c>
-      <c r="N45" t="n">
+      <c r="Q45" t="n">
         <v>0.09090909090909091</v>
       </c>
-      <c r="O45" t="n">
-        <v>2</v>
-      </c>
-      <c r="P45" t="n">
-        <v>6.060606060606061</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.06060606060606061</v>
-      </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -6979,58 +6979,58 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
+        <v>6.060606060606061</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" t="n">
         <v>9.090909090909092</v>
       </c>
-      <c r="H46" t="n">
+      <c r="K46" t="n">
         <v>0.09090909090909091</v>
       </c>
-      <c r="I46" t="n">
-        <v>10</v>
-      </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
+        <v>10</v>
+      </c>
+      <c r="M46" t="n">
         <v>30.3030303030303</v>
       </c>
-      <c r="K46" t="n">
+      <c r="N46" t="n">
         <v>0.303030303030303</v>
       </c>
-      <c r="L46" t="n">
-        <v>3</v>
-      </c>
-      <c r="M46" t="n">
+      <c r="O46" t="n">
+        <v>3</v>
+      </c>
+      <c r="P46" t="n">
         <v>9.090909090909092</v>
       </c>
-      <c r="N46" t="n">
+      <c r="Q46" t="n">
         <v>0.09090909090909091</v>
       </c>
-      <c r="O46" t="n">
-        <v>2</v>
-      </c>
-      <c r="P46" t="n">
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
         <v>6.060606060606061</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="T46" t="n">
         <v>0.06060606060606061</v>
       </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
       <c r="U46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>6.060606060606061</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.06060606060606061</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -7122,58 +7122,58 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
+        <v>5.88235294117647</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5.88235294117647</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="L47" t="n">
+        <v>10</v>
+      </c>
+      <c r="M47" t="n">
+        <v>29.41176470588236</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="O47" t="n">
+        <v>3</v>
+      </c>
+      <c r="P47" t="n">
         <v>8.823529411764707</v>
       </c>
-      <c r="H47" t="n">
+      <c r="Q47" t="n">
         <v>0.08823529411764706</v>
       </c>
-      <c r="I47" t="n">
-        <v>10</v>
-      </c>
-      <c r="J47" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2</v>
-      </c>
-      <c r="M47" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="O47" t="n">
-        <v>2</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.05882352941176471</v>
-      </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>8.823529411764707</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="U47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>8.823529411764707</v>
+        <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>0.08823529411764706</v>
+        <v>0</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
@@ -7265,58 +7265,58 @@
         <v>0.07407407407407407</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
+        <v>7.407407407407407</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.703703703703703</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="L48" t="n">
+        <v>10</v>
+      </c>
+      <c r="M48" t="n">
+        <v>37.03703703703704</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3</v>
+      </c>
+      <c r="P48" t="n">
         <v>11.11111111111111</v>
       </c>
-      <c r="H48" t="n">
+      <c r="Q48" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="I48" t="n">
-        <v>10</v>
-      </c>
-      <c r="J48" t="n">
-        <v>37.03703703703704</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.3703703703703703</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="n">
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
         <v>3.703703703703703</v>
       </c>
-      <c r="N48" t="n">
+      <c r="T48" t="n">
         <v>0.03703703703703703</v>
       </c>
-      <c r="O48" t="n">
-        <v>2</v>
-      </c>
-      <c r="P48" t="n">
-        <v>7.407407407407407</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.07407407407407407</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0</v>
-      </c>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>0.03703703703703703</v>
+        <v>0</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
@@ -7408,58 +7408,58 @@
         <v>0.1</v>
       </c>
       <c r="F49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>10</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="L49" t="n">
+        <v>10</v>
+      </c>
+      <c r="M49" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="O49" t="n">
+        <v>3</v>
+      </c>
+      <c r="P49" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q49" t="n">
         <v>0.1</v>
       </c>
-      <c r="I49" t="n">
-        <v>10</v>
-      </c>
-      <c r="J49" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2</v>
-      </c>
-      <c r="M49" t="n">
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
         <v>6.666666666666667</v>
       </c>
-      <c r="N49" t="n">
+      <c r="T49" t="n">
         <v>0.06666666666666667</v>
       </c>
-      <c r="O49" t="n">
-        <v>2</v>
-      </c>
-      <c r="P49" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0</v>
-      </c>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="X49" t="n">
         <v>0</v>
@@ -7551,58 +7551,58 @@
         <v>0.1714285714285714</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
+        <v>2.857142857142857</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50" t="n">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L50" t="n">
+        <v>10</v>
+      </c>
+      <c r="M50" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="O50" t="n">
+        <v>3</v>
+      </c>
+      <c r="P50" t="n">
         <v>8.571428571428571</v>
       </c>
-      <c r="H50" t="n">
+      <c r="Q50" t="n">
         <v>0.08571428571428572</v>
       </c>
-      <c r="I50" t="n">
-        <v>10</v>
-      </c>
-      <c r="J50" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5</v>
-      </c>
-      <c r="M50" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1</v>
-      </c>
-      <c r="P50" t="n">
-        <v>2.857142857142857</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.02857142857142857</v>
-      </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>8.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>0.08571428571428572</v>
+        <v>0</v>
       </c>
       <c r="X50" t="n">
         <v>0</v>
@@ -7694,58 +7694,58 @@
         <v>0.03225806451612903</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
+        <v>3.225806451612903</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5</v>
+      </c>
+      <c r="J51" t="n">
+        <v>16.12903225806452</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="L51" t="n">
+        <v>10</v>
+      </c>
+      <c r="M51" t="n">
+        <v>32.25806451612903</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="O51" t="n">
+        <v>3</v>
+      </c>
+      <c r="P51" t="n">
         <v>9.67741935483871</v>
       </c>
-      <c r="H51" t="n">
+      <c r="Q51" t="n">
         <v>0.09677419354838709</v>
       </c>
-      <c r="I51" t="n">
-        <v>10</v>
-      </c>
-      <c r="J51" t="n">
-        <v>32.25806451612903</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.3225806451612903</v>
-      </c>
-      <c r="L51" t="n">
-        <v>5</v>
-      </c>
-      <c r="M51" t="n">
-        <v>16.12903225806452</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0.1612903225806452</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1</v>
-      </c>
-      <c r="P51" t="n">
-        <v>3.225806451612903</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.03225806451612903</v>
-      </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="U51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>0.09677419354838709</v>
+        <v>0</v>
       </c>
       <c r="X51" t="n">
         <v>0</v>
@@ -7837,58 +7837,58 @@
         <v>0.2162162162162162</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
+        <v>5.405405405405405</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" t="n">
         <v>8.108108108108109</v>
       </c>
-      <c r="H52" t="n">
+      <c r="K52" t="n">
         <v>0.08108108108108109</v>
       </c>
-      <c r="I52" t="n">
-        <v>10</v>
-      </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
+        <v>10</v>
+      </c>
+      <c r="M52" t="n">
         <v>27.02702702702703</v>
       </c>
-      <c r="K52" t="n">
+      <c r="N52" t="n">
         <v>0.2702702702702703</v>
       </c>
-      <c r="L52" t="n">
-        <v>3</v>
-      </c>
-      <c r="M52" t="n">
+      <c r="O52" t="n">
+        <v>3</v>
+      </c>
+      <c r="P52" t="n">
         <v>8.108108108108109</v>
       </c>
-      <c r="N52" t="n">
+      <c r="Q52" t="n">
         <v>0.08108108108108109</v>
       </c>
-      <c r="O52" t="n">
-        <v>2</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5.405405405405405</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.05405405405405406</v>
-      </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="U52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>8.108108108108109</v>
+        <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>0.08108108108108109</v>
+        <v>0</v>
       </c>
       <c r="X52" t="n">
         <v>0</v>
@@ -7980,58 +7980,58 @@
         <v>0.08823529411764706</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
+        <v>5.88235294117647</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>14.70588235294118</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.1470588235294118</v>
+      </c>
+      <c r="L53" t="n">
+        <v>10</v>
+      </c>
+      <c r="M53" t="n">
+        <v>29.41176470588236</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="O53" t="n">
+        <v>3</v>
+      </c>
+      <c r="P53" t="n">
         <v>8.823529411764707</v>
       </c>
-      <c r="H53" t="n">
+      <c r="Q53" t="n">
         <v>0.08823529411764706</v>
       </c>
-      <c r="I53" t="n">
-        <v>10</v>
-      </c>
-      <c r="J53" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="L53" t="n">
-        <v>5</v>
-      </c>
-      <c r="M53" t="n">
-        <v>14.70588235294118</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.1470588235294118</v>
-      </c>
-      <c r="O53" t="n">
-        <v>2</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0.05882352941176471</v>
-      </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>8.823529411764707</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="U53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>8.823529411764707</v>
+        <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>0.08823529411764706</v>
+        <v>0</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
@@ -8123,58 +8123,58 @@
         <v>0.07894736842105263</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
+        <v>2.631578947368421</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="I54" t="n">
+        <v>12</v>
+      </c>
+      <c r="J54" t="n">
+        <v>31.57894736842105</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="L54" t="n">
+        <v>10</v>
+      </c>
+      <c r="M54" t="n">
+        <v>26.31578947368421</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="O54" t="n">
+        <v>3</v>
+      </c>
+      <c r="P54" t="n">
         <v>7.894736842105263</v>
       </c>
-      <c r="H54" t="n">
+      <c r="Q54" t="n">
         <v>0.07894736842105263</v>
       </c>
-      <c r="I54" t="n">
-        <v>10</v>
-      </c>
-      <c r="J54" t="n">
-        <v>26.31578947368421</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="L54" t="n">
-        <v>12</v>
-      </c>
-      <c r="M54" t="n">
-        <v>31.57894736842105</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1</v>
-      </c>
-      <c r="P54" t="n">
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="n">
         <v>2.631578947368421</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="T54" t="n">
         <v>0.02631578947368421</v>
       </c>
-      <c r="R54" t="n">
-        <v>0</v>
-      </c>
-      <c r="S54" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" t="n">
-        <v>0</v>
-      </c>
       <c r="U54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>2.631578947368421</v>
+        <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>0.02631578947368421</v>
+        <v>0</v>
       </c>
       <c r="X54" t="n">
         <v>0</v>
@@ -8302,22 +8302,22 @@
         <v>0.06382978723404255</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="U55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>6.382978723404255</v>
+        <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>0.06382978723404255</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
         <v>0</v>
@@ -8418,22 +8418,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="I56" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="L56" t="n">
+        <v>10</v>
+      </c>
+      <c r="M56" t="n">
         <v>30.3030303030303</v>
       </c>
-      <c r="K56" t="n">
+      <c r="N56" t="n">
         <v>0.303030303030303</v>
-      </c>
-      <c r="L56" t="n">
-        <v>6</v>
-      </c>
-      <c r="M56" t="n">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.1818181818181818</v>
       </c>
       <c r="O56" t="n">
         <v>3</v>
@@ -8445,22 +8445,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="U56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>6.060606060606061</v>
+        <v>0</v>
       </c>
       <c r="W56" t="n">
-        <v>0.06060606060606061</v>
+        <v>0</v>
       </c>
       <c r="X56" t="n">
         <v>0</v>
@@ -8552,58 +8552,58 @@
         <v>0.2439024390243902</v>
       </c>
       <c r="F57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
+        <v>4.878048780487805</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.04878048780487805</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5</v>
+      </c>
+      <c r="J57" t="n">
+        <v>12.19512195121951</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.1219512195121951</v>
+      </c>
+      <c r="L57" t="n">
+        <v>10</v>
+      </c>
+      <c r="M57" t="n">
+        <v>24.39024390243902</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3</v>
+      </c>
+      <c r="P57" t="n">
         <v>7.317073170731707</v>
       </c>
-      <c r="H57" t="n">
+      <c r="Q57" t="n">
         <v>0.07317073170731707</v>
       </c>
-      <c r="I57" t="n">
-        <v>10</v>
-      </c>
-      <c r="J57" t="n">
-        <v>24.39024390243902</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.2439024390243902</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5</v>
-      </c>
-      <c r="M57" t="n">
-        <v>12.19512195121951</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0.1219512195121951</v>
-      </c>
-      <c r="O57" t="n">
-        <v>2</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4.878048780487805</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0.04878048780487805</v>
-      </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>7.317073170731707</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="U57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>7.317073170731707</v>
+        <v>0</v>
       </c>
       <c r="W57" t="n">
-        <v>0.07317073170731707</v>
+        <v>0</v>
       </c>
       <c r="X57" t="n">
         <v>0</v>
@@ -8704,22 +8704,22 @@
         <v>0.09375</v>
       </c>
       <c r="I58" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J58" t="n">
+        <v>15.625</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.15625</v>
+      </c>
+      <c r="L58" t="n">
+        <v>10</v>
+      </c>
+      <c r="M58" t="n">
         <v>31.25</v>
       </c>
-      <c r="K58" t="n">
+      <c r="N58" t="n">
         <v>0.3125</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5</v>
-      </c>
-      <c r="M58" t="n">
-        <v>15.625</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.15625</v>
       </c>
       <c r="O58" t="n">
         <v>3</v>
@@ -8731,22 +8731,22 @@
         <v>0.09375</v>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="U58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="W58" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="X58" t="n">
         <v>0</v>
@@ -8847,22 +8847,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="I59" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J59" t="n">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L59" t="n">
+        <v>10</v>
+      </c>
+      <c r="M59" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="K59" t="n">
+      <c r="N59" t="n">
         <v>0.2777777777777778</v>
-      </c>
-      <c r="L59" t="n">
-        <v>6</v>
-      </c>
-      <c r="M59" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0.1666666666666667</v>
       </c>
       <c r="O59" t="n">
         <v>3</v>
@@ -8874,22 +8874,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="U59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>5.555555555555555</v>
+        <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="X59" t="n">
         <v>0</v>
@@ -8981,58 +8981,58 @@
         <v>0.1290322580645161</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
+        <v>6.451612903225806</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.225806451612903</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="L60" t="n">
+        <v>10</v>
+      </c>
+      <c r="M60" t="n">
+        <v>32.25806451612903</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="O60" t="n">
+        <v>3</v>
+      </c>
+      <c r="P60" t="n">
         <v>9.67741935483871</v>
       </c>
-      <c r="H60" t="n">
+      <c r="Q60" t="n">
         <v>0.09677419354838709</v>
       </c>
-      <c r="I60" t="n">
-        <v>10</v>
-      </c>
-      <c r="J60" t="n">
-        <v>32.25806451612903</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.3225806451612903</v>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3.225806451612903</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="O60" t="n">
-        <v>2</v>
-      </c>
-      <c r="P60" t="n">
-        <v>6.451612903225806</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0.06451612903225806</v>
-      </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="U60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>0.09677419354838709</v>
+        <v>0</v>
       </c>
       <c r="X60" t="n">
         <v>0</v>
@@ -9124,58 +9124,58 @@
         <v>0.15625</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="L61" t="n">
+        <v>10</v>
+      </c>
+      <c r="M61" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="O61" t="n">
+        <v>3</v>
+      </c>
+      <c r="P61" t="n">
         <v>9.375</v>
       </c>
-      <c r="H61" t="n">
+      <c r="Q61" t="n">
         <v>0.09375</v>
       </c>
-      <c r="I61" t="n">
-        <v>10</v>
-      </c>
-      <c r="J61" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0.03125</v>
-      </c>
-      <c r="O61" t="n">
-        <v>2</v>
-      </c>
-      <c r="P61" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0.0625</v>
-      </c>
       <c r="R61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>9.375</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>0.09375</v>
       </c>
       <c r="U61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>9.375</v>
+        <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>0.09375</v>
+        <v>0</v>
       </c>
       <c r="X61" t="n">
         <v>0</v>
@@ -9267,58 +9267,58 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>10</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>10</v>
+      </c>
+      <c r="M62" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="O62" t="n">
+        <v>3</v>
+      </c>
+      <c r="P62" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q62" t="n">
         <v>0.1</v>
       </c>
-      <c r="I62" t="n">
-        <v>10</v>
-      </c>
-      <c r="J62" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="n">
-        <v>2</v>
-      </c>
-      <c r="P62" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0.06666666666666667</v>
-      </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="X62" t="n">
         <v>0</v>
@@ -9410,58 +9410,58 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="L63" t="n">
+        <v>10</v>
+      </c>
+      <c r="M63" t="n">
+        <v>41.66666666666667</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="O63" t="n">
+        <v>3</v>
+      </c>
+      <c r="P63" t="n">
         <v>12.5</v>
       </c>
-      <c r="H63" t="n">
+      <c r="Q63" t="n">
         <v>0.125</v>
       </c>
-      <c r="I63" t="n">
-        <v>10</v>
-      </c>
-      <c r="J63" t="n">
-        <v>41.66666666666667</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2</v>
-      </c>
-      <c r="M63" t="n">
+      <c r="R63" t="n">
+        <v>2</v>
+      </c>
+      <c r="S63" t="n">
         <v>8.333333333333332</v>
       </c>
-      <c r="N63" t="n">
+      <c r="T63" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="O63" t="n">
-        <v>2</v>
-      </c>
-      <c r="P63" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="R63" t="n">
-        <v>0</v>
-      </c>
-      <c r="S63" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" t="n">
-        <v>0</v>
-      </c>
       <c r="U63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="W63" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="X63" t="n">
         <v>0</v>
@@ -9562,22 +9562,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="I64" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="L64" t="n">
+        <v>10</v>
+      </c>
+      <c r="M64" t="n">
         <v>27.77777777777778</v>
       </c>
-      <c r="K64" t="n">
+      <c r="N64" t="n">
         <v>0.2777777777777778</v>
-      </c>
-      <c r="L64" t="n">
-        <v>3</v>
-      </c>
-      <c r="M64" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0.08333333333333333</v>
       </c>
       <c r="O64" t="n">
         <v>3</v>
@@ -9589,22 +9589,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="U64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>5.555555555555555</v>
+        <v>0</v>
       </c>
       <c r="W64" t="n">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="X64" t="n">
         <v>0</v>
@@ -9696,58 +9696,58 @@
         <v>0.1627906976744186</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
+        <v>4.651162790697675</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.04651162790697674</v>
+      </c>
+      <c r="I65" t="n">
+        <v>9</v>
+      </c>
+      <c r="J65" t="n">
+        <v>20.93023255813954</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.2093023255813954</v>
+      </c>
+      <c r="L65" t="n">
+        <v>10</v>
+      </c>
+      <c r="M65" t="n">
+        <v>23.25581395348837</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.2325581395348837</v>
+      </c>
+      <c r="O65" t="n">
+        <v>3</v>
+      </c>
+      <c r="P65" t="n">
         <v>6.976744186046512</v>
       </c>
-      <c r="H65" t="n">
+      <c r="Q65" t="n">
         <v>0.06976744186046512</v>
       </c>
-      <c r="I65" t="n">
-        <v>10</v>
-      </c>
-      <c r="J65" t="n">
-        <v>23.25581395348837</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="L65" t="n">
-        <v>9</v>
-      </c>
-      <c r="M65" t="n">
-        <v>20.93023255813954</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="O65" t="n">
-        <v>2</v>
-      </c>
-      <c r="P65" t="n">
-        <v>4.651162790697675</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0.04651162790697674</v>
-      </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="U65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>6.976744186046512</v>
+        <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>0.06976744186046512</v>
+        <v>0</v>
       </c>
       <c r="X65" t="n">
         <v>0</v>
@@ -9839,58 +9839,58 @@
         <v>0.1212121212121212</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G66" t="n">
+        <v>6.060606060606061</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3.03030303030303</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="L66" t="n">
+        <v>10</v>
+      </c>
+      <c r="M66" t="n">
+        <v>30.3030303030303</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="O66" t="n">
+        <v>3</v>
+      </c>
+      <c r="P66" t="n">
         <v>9.090909090909092</v>
       </c>
-      <c r="H66" t="n">
+      <c r="Q66" t="n">
         <v>0.09090909090909091</v>
       </c>
-      <c r="I66" t="n">
-        <v>10</v>
-      </c>
-      <c r="J66" t="n">
-        <v>30.3030303030303</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.303030303030303</v>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="n">
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
         <v>3.03030303030303</v>
       </c>
-      <c r="N66" t="n">
+      <c r="W66" t="n">
         <v>0.0303030303030303</v>
-      </c>
-      <c r="O66" t="n">
-        <v>2</v>
-      </c>
-      <c r="P66" t="n">
-        <v>6.060606060606061</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="R66" t="n">
-        <v>1</v>
-      </c>
-      <c r="S66" t="n">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="T66" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="U66" t="n">
-        <v>3</v>
-      </c>
-      <c r="V66" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="W66" t="n">
-        <v>0.09090909090909091</v>
       </c>
       <c r="X66" t="n">
         <v>0</v>
@@ -9982,58 +9982,58 @@
         <v>0.1621621621621622</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
+        <v>5.405405405405405</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>10.81081081081081</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="L67" t="n">
+        <v>10</v>
+      </c>
+      <c r="M67" t="n">
+        <v>27.02702702702703</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="O67" t="n">
+        <v>3</v>
+      </c>
+      <c r="P67" t="n">
         <v>8.108108108108109</v>
       </c>
-      <c r="H67" t="n">
+      <c r="Q67" t="n">
         <v>0.08108108108108109</v>
       </c>
-      <c r="I67" t="n">
-        <v>10</v>
-      </c>
-      <c r="J67" t="n">
-        <v>27.02702702702703</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="L67" t="n">
-        <v>4</v>
-      </c>
-      <c r="M67" t="n">
-        <v>10.81081081081081</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0.1081081081081081</v>
-      </c>
-      <c r="O67" t="n">
-        <v>2</v>
-      </c>
-      <c r="P67" t="n">
-        <v>5.405405405405405</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0.05405405405405406</v>
-      </c>
       <c r="R67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S67" t="n">
+        <v>8.108108108108109</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
         <v>2.702702702702703</v>
       </c>
-      <c r="T67" t="n">
+      <c r="W67" t="n">
         <v>0.02702702702702703</v>
-      </c>
-      <c r="U67" t="n">
-        <v>3</v>
-      </c>
-      <c r="V67" t="n">
-        <v>8.108108108108109</v>
-      </c>
-      <c r="W67" t="n">
-        <v>0.08108108108108109</v>
       </c>
       <c r="X67" t="n">
         <v>0</v>
@@ -10125,58 +10125,58 @@
         <v>0.1071428571428571</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6</v>
+      </c>
+      <c r="J68" t="n">
+        <v>21.42857142857143</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="n">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="O68" t="n">
+        <v>3</v>
+      </c>
+      <c r="P68" t="n">
         <v>10.71428571428571</v>
       </c>
-      <c r="H68" t="n">
+      <c r="Q68" t="n">
         <v>0.1071428571428571</v>
       </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>7.142857142857142</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="L68" t="n">
-        <v>6</v>
-      </c>
-      <c r="M68" t="n">
-        <v>21.42857142857143</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="O68" t="n">
-        <v>2</v>
-      </c>
-      <c r="P68" t="n">
-        <v>7.142857142857142</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0.07142857142857142</v>
-      </c>
       <c r="R68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S68" t="n">
+        <v>10.71428571428571</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
         <v>3.571428571428571</v>
       </c>
-      <c r="T68" t="n">
+      <c r="W68" t="n">
         <v>0.03571428571428571</v>
-      </c>
-      <c r="U68" t="n">
-        <v>3</v>
-      </c>
-      <c r="V68" t="n">
-        <v>10.71428571428571</v>
-      </c>
-      <c r="W68" t="n">
-        <v>0.1071428571428571</v>
       </c>
       <c r="X68" t="n">
         <v>0</v>
@@ -10268,58 +10268,58 @@
         <v>0.2127659574468085</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
+        <v>4.25531914893617</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0425531914893617</v>
+      </c>
+      <c r="I69" t="n">
+        <v>11</v>
+      </c>
+      <c r="J69" t="n">
+        <v>23.40425531914894</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.2340425531914894</v>
+      </c>
+      <c r="L69" t="n">
+        <v>10</v>
+      </c>
+      <c r="M69" t="n">
+        <v>21.27659574468085</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.2127659574468085</v>
+      </c>
+      <c r="O69" t="n">
+        <v>3</v>
+      </c>
+      <c r="P69" t="n">
         <v>6.382978723404255</v>
       </c>
-      <c r="H69" t="n">
+      <c r="Q69" t="n">
         <v>0.06382978723404255</v>
       </c>
-      <c r="I69" t="n">
-        <v>10</v>
-      </c>
-      <c r="J69" t="n">
-        <v>21.27659574468085</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2127659574468085</v>
-      </c>
-      <c r="L69" t="n">
-        <v>11</v>
-      </c>
-      <c r="M69" t="n">
-        <v>23.40425531914894</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0.2340425531914894</v>
-      </c>
-      <c r="O69" t="n">
-        <v>2</v>
-      </c>
-      <c r="P69" t="n">
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
         <v>4.25531914893617</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="T69" t="n">
         <v>0.0425531914893617</v>
       </c>
-      <c r="R69" t="n">
-        <v>1</v>
-      </c>
-      <c r="S69" t="n">
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
         <v>2.127659574468085</v>
       </c>
-      <c r="T69" t="n">
+      <c r="W69" t="n">
         <v>0.02127659574468085</v>
-      </c>
-      <c r="U69" t="n">
-        <v>2</v>
-      </c>
-      <c r="V69" t="n">
-        <v>4.25531914893617</v>
-      </c>
-      <c r="W69" t="n">
-        <v>0.0425531914893617</v>
       </c>
       <c r="X69" t="n">
         <v>0</v>
@@ -10420,22 +10420,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="I70" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J70" t="n">
+        <v>12.82051282051282</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="L70" t="n">
+        <v>10</v>
+      </c>
+      <c r="M70" t="n">
         <v>25.64102564102564</v>
       </c>
-      <c r="K70" t="n">
+      <c r="N70" t="n">
         <v>0.2564102564102564</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5</v>
-      </c>
-      <c r="M70" t="n">
-        <v>12.82051282051282</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0.1282051282051282</v>
       </c>
       <c r="O70" t="n">
         <v>3</v>
@@ -10447,22 +10447,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="R70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S70" t="n">
+        <v>7.692307692307693</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
         <v>2.564102564102564</v>
       </c>
-      <c r="T70" t="n">
+      <c r="W70" t="n">
         <v>0.02564102564102564</v>
-      </c>
-      <c r="U70" t="n">
-        <v>3</v>
-      </c>
-      <c r="V70" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="W70" t="n">
-        <v>0.07692307692307693</v>
       </c>
       <c r="X70" t="n">
         <v>0</v>
@@ -10563,22 +10563,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="I71" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
+        <v>12.12121212121212</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.1212121212121212</v>
+      </c>
+      <c r="L71" t="n">
+        <v>10</v>
+      </c>
+      <c r="M71" t="n">
         <v>30.3030303030303</v>
       </c>
-      <c r="K71" t="n">
+      <c r="N71" t="n">
         <v>0.303030303030303</v>
-      </c>
-      <c r="L71" t="n">
-        <v>4</v>
-      </c>
-      <c r="M71" t="n">
-        <v>12.12121212121212</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0.1212121212121212</v>
       </c>
       <c r="O71" t="n">
         <v>3</v>
@@ -10590,22 +10590,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="R71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S71" t="n">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
         <v>3.03030303030303</v>
       </c>
-      <c r="T71" t="n">
+      <c r="W71" t="n">
         <v>0.0303030303030303</v>
-      </c>
-      <c r="U71" t="n">
-        <v>3</v>
-      </c>
-      <c r="V71" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="W71" t="n">
-        <v>0.09090909090909091</v>
       </c>
       <c r="X71" t="n">
         <v>0</v>
@@ -10706,22 +10706,22 @@
         <v>0.09677419354838709</v>
       </c>
       <c r="I72" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
+        <v>3.225806451612903</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="L72" t="n">
+        <v>10</v>
+      </c>
+      <c r="M72" t="n">
         <v>32.25806451612903</v>
       </c>
-      <c r="K72" t="n">
+      <c r="N72" t="n">
         <v>0.3225806451612903</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3.225806451612903</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0.03225806451612903</v>
       </c>
       <c r="O72" t="n">
         <v>3</v>
@@ -10733,22 +10733,22 @@
         <v>0.09677419354838709</v>
       </c>
       <c r="R72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S72" t="n">
+        <v>6.451612903225806</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
         <v>3.225806451612903</v>
       </c>
-      <c r="T72" t="n">
+      <c r="W72" t="n">
         <v>0.03225806451612903</v>
-      </c>
-      <c r="U72" t="n">
-        <v>2</v>
-      </c>
-      <c r="V72" t="n">
-        <v>6.451612903225806</v>
-      </c>
-      <c r="W72" t="n">
-        <v>0.06451612903225806</v>
       </c>
       <c r="X72" t="n">
         <v>0</v>
@@ -10840,58 +10840,58 @@
         <v>0.06451612903225806</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
+        <v>6.451612903225806</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>6.451612903225806</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="L73" t="n">
+        <v>10</v>
+      </c>
+      <c r="M73" t="n">
+        <v>32.25806451612903</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="O73" t="n">
+        <v>3</v>
+      </c>
+      <c r="P73" t="n">
         <v>9.67741935483871</v>
       </c>
-      <c r="H73" t="n">
+      <c r="Q73" t="n">
         <v>0.09677419354838709</v>
       </c>
-      <c r="I73" t="n">
-        <v>10</v>
-      </c>
-      <c r="J73" t="n">
-        <v>32.25806451612903</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.3225806451612903</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2</v>
-      </c>
-      <c r="M73" t="n">
-        <v>6.451612903225806</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="O73" t="n">
-        <v>2</v>
-      </c>
-      <c r="P73" t="n">
-        <v>6.451612903225806</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0.06451612903225806</v>
-      </c>
       <c r="R73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S73" t="n">
+        <v>9.67741935483871</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.09677419354838709</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
         <v>3.225806451612903</v>
       </c>
-      <c r="T73" t="n">
+      <c r="W73" t="n">
         <v>0.03225806451612903</v>
-      </c>
-      <c r="U73" t="n">
-        <v>3</v>
-      </c>
-      <c r="V73" t="n">
-        <v>9.67741935483871</v>
-      </c>
-      <c r="W73" t="n">
-        <v>0.09677419354838709</v>
       </c>
       <c r="X73" t="n">
         <v>0</v>
@@ -10983,58 +10983,58 @@
         <v>0.08571428571428572</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
+        <v>5.714285714285714</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="I74" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L74" t="n">
+        <v>10</v>
+      </c>
+      <c r="M74" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="O74" t="n">
+        <v>3</v>
+      </c>
+      <c r="P74" t="n">
         <v>8.571428571428571</v>
       </c>
-      <c r="H74" t="n">
+      <c r="Q74" t="n">
         <v>0.08571428571428572</v>
       </c>
-      <c r="I74" t="n">
-        <v>10</v>
-      </c>
-      <c r="J74" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L74" t="n">
-        <v>5</v>
-      </c>
-      <c r="M74" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="O74" t="n">
-        <v>2</v>
-      </c>
-      <c r="P74" t="n">
-        <v>5.714285714285714</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>0.05714285714285714</v>
-      </c>
       <c r="R74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S74" t="n">
+        <v>8.571428571428571</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.08571428571428572</v>
+      </c>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
         <v>2.857142857142857</v>
       </c>
-      <c r="T74" t="n">
+      <c r="W74" t="n">
         <v>0.02857142857142857</v>
-      </c>
-      <c r="U74" t="n">
-        <v>3</v>
-      </c>
-      <c r="V74" t="n">
-        <v>8.571428571428571</v>
-      </c>
-      <c r="W74" t="n">
-        <v>0.08571428571428572</v>
       </c>
       <c r="X74" t="n">
         <v>0</v>
@@ -11135,22 +11135,22 @@
         <v>0.08823529411764706</v>
       </c>
       <c r="I75" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
+        <v>8.823529411764707</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="L75" t="n">
+        <v>10</v>
+      </c>
+      <c r="M75" t="n">
         <v>29.41176470588236</v>
       </c>
-      <c r="K75" t="n">
+      <c r="N75" t="n">
         <v>0.2941176470588235</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3</v>
-      </c>
-      <c r="M75" t="n">
-        <v>8.823529411764707</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0.08823529411764706</v>
       </c>
       <c r="O75" t="n">
         <v>3</v>
@@ -11162,22 +11162,22 @@
         <v>0.08823529411764706</v>
       </c>
       <c r="R75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S75" t="n">
+        <v>8.823529411764707</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
         <v>2.941176470588235</v>
       </c>
-      <c r="T75" t="n">
+      <c r="W75" t="n">
         <v>0.02941176470588235</v>
-      </c>
-      <c r="U75" t="n">
-        <v>3</v>
-      </c>
-      <c r="V75" t="n">
-        <v>8.823529411764707</v>
-      </c>
-      <c r="W75" t="n">
-        <v>0.08823529411764706</v>
       </c>
       <c r="X75" t="n">
         <v>0</v>
@@ -11278,22 +11278,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="I76" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J76" t="n">
+        <v>9.523809523809524</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="L76" t="n">
+        <v>10</v>
+      </c>
+      <c r="M76" t="n">
         <v>23.80952380952381</v>
       </c>
-      <c r="K76" t="n">
+      <c r="N76" t="n">
         <v>0.2380952380952381</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4</v>
-      </c>
-      <c r="M76" t="n">
-        <v>9.523809523809524</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0.09523809523809523</v>
       </c>
       <c r="O76" t="n">
         <v>3</v>
@@ -11305,22 +11305,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="R76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S76" t="n">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
         <v>2.380952380952381</v>
       </c>
-      <c r="T76" t="n">
+      <c r="W76" t="n">
         <v>0.02380952380952381</v>
-      </c>
-      <c r="U76" t="n">
-        <v>3</v>
-      </c>
-      <c r="V76" t="n">
-        <v>7.142857142857142</v>
-      </c>
-      <c r="W76" t="n">
-        <v>0.07142857142857142</v>
       </c>
       <c r="X76" t="n">
         <v>0</v>
@@ -11412,58 +11412,58 @@
         <v>0.07317073170731707</v>
       </c>
       <c r="F77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
+        <v>2.439024390243902</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.02439024390243903</v>
+      </c>
+      <c r="I77" t="n">
+        <v>11</v>
+      </c>
+      <c r="J77" t="n">
+        <v>26.82926829268293</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.2682926829268293</v>
+      </c>
+      <c r="L77" t="n">
+        <v>10</v>
+      </c>
+      <c r="M77" t="n">
+        <v>24.39024390243902</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.2439024390243902</v>
+      </c>
+      <c r="O77" t="n">
+        <v>3</v>
+      </c>
+      <c r="P77" t="n">
         <v>7.317073170731707</v>
       </c>
-      <c r="H77" t="n">
+      <c r="Q77" t="n">
         <v>0.07317073170731707</v>
       </c>
-      <c r="I77" t="n">
-        <v>10</v>
-      </c>
-      <c r="J77" t="n">
-        <v>24.39024390243902</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2439024390243902</v>
-      </c>
-      <c r="L77" t="n">
-        <v>11</v>
-      </c>
-      <c r="M77" t="n">
-        <v>26.82926829268293</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.2682926829268293</v>
-      </c>
-      <c r="O77" t="n">
-        <v>1</v>
-      </c>
-      <c r="P77" t="n">
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>7.317073170731707</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.07317073170731707</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
         <v>2.439024390243902</v>
       </c>
-      <c r="Q77" t="n">
+      <c r="W77" t="n">
         <v>0.02439024390243903</v>
-      </c>
-      <c r="R77" t="n">
-        <v>1</v>
-      </c>
-      <c r="S77" t="n">
-        <v>2.439024390243902</v>
-      </c>
-      <c r="T77" t="n">
-        <v>0.02439024390243903</v>
-      </c>
-      <c r="U77" t="n">
-        <v>3</v>
-      </c>
-      <c r="V77" t="n">
-        <v>7.317073170731707</v>
-      </c>
-      <c r="W77" t="n">
-        <v>0.07317073170731707</v>
       </c>
       <c r="X77" t="n">
         <v>0</v>
@@ -11555,58 +11555,58 @@
         <v>0.25</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
+        <v>5</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I78" t="n">
+        <v>4</v>
+      </c>
+      <c r="J78" t="n">
+        <v>10</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>10</v>
+      </c>
+      <c r="M78" t="n">
+        <v>25</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O78" t="n">
+        <v>3</v>
+      </c>
+      <c r="P78" t="n">
         <v>7.5</v>
       </c>
-      <c r="H78" t="n">
+      <c r="Q78" t="n">
         <v>0.075</v>
       </c>
-      <c r="I78" t="n">
-        <v>10</v>
-      </c>
-      <c r="J78" t="n">
-        <v>25</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4</v>
-      </c>
-      <c r="M78" t="n">
-        <v>10</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O78" t="n">
-        <v>2</v>
-      </c>
-      <c r="P78" t="n">
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
         <v>5</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="T78" t="n">
         <v>0.05</v>
       </c>
-      <c r="R78" t="n">
-        <v>1</v>
-      </c>
-      <c r="S78" t="n">
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
         <v>2.5</v>
       </c>
-      <c r="T78" t="n">
+      <c r="W78" t="n">
         <v>0.025</v>
-      </c>
-      <c r="U78" t="n">
-        <v>2</v>
-      </c>
-      <c r="V78" t="n">
-        <v>5</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0.05</v>
       </c>
       <c r="X78" t="n">
         <v>0</v>
@@ -11707,22 +11707,22 @@
         <v>0.07894736842105263</v>
       </c>
       <c r="I79" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J79" t="n">
+        <v>13.1578947368421</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.131578947368421</v>
+      </c>
+      <c r="L79" t="n">
+        <v>10</v>
+      </c>
+      <c r="M79" t="n">
         <v>26.31578947368421</v>
       </c>
-      <c r="K79" t="n">
+      <c r="N79" t="n">
         <v>0.2631578947368421</v>
-      </c>
-      <c r="L79" t="n">
-        <v>5</v>
-      </c>
-      <c r="M79" t="n">
-        <v>13.1578947368421</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.131578947368421</v>
       </c>
       <c r="O79" t="n">
         <v>3</v>
@@ -11734,22 +11734,22 @@
         <v>0.07894736842105263</v>
       </c>
       <c r="R79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S79" t="n">
+        <v>7.894736842105263</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
         <v>2.631578947368421</v>
       </c>
-      <c r="T79" t="n">
+      <c r="W79" t="n">
         <v>0.02631578947368421</v>
-      </c>
-      <c r="U79" t="n">
-        <v>3</v>
-      </c>
-      <c r="V79" t="n">
-        <v>7.894736842105263</v>
-      </c>
-      <c r="W79" t="n">
-        <v>0.07894736842105263</v>
       </c>
       <c r="X79" t="n">
         <v>0</v>
@@ -11841,58 +11841,58 @@
         <v>0.2380952380952381</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
+        <v>2.380952380952381</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="I80" t="n">
+        <v>6</v>
+      </c>
+      <c r="J80" t="n">
+        <v>14.28571428571428</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L80" t="n">
+        <v>10</v>
+      </c>
+      <c r="M80" t="n">
+        <v>23.80952380952381</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="O80" t="n">
+        <v>3</v>
+      </c>
+      <c r="P80" t="n">
         <v>7.142857142857142</v>
       </c>
-      <c r="H80" t="n">
+      <c r="Q80" t="n">
         <v>0.07142857142857142</v>
       </c>
-      <c r="I80" t="n">
-        <v>10</v>
-      </c>
-      <c r="J80" t="n">
-        <v>23.80952380952381</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="L80" t="n">
-        <v>6</v>
-      </c>
-      <c r="M80" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="O80" t="n">
-        <v>1</v>
-      </c>
-      <c r="P80" t="n">
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
         <v>2.380952380952381</v>
       </c>
-      <c r="Q80" t="n">
+      <c r="W80" t="n">
         <v>0.02380952380952381</v>
-      </c>
-      <c r="R80" t="n">
-        <v>1</v>
-      </c>
-      <c r="S80" t="n">
-        <v>2.380952380952381</v>
-      </c>
-      <c r="T80" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="U80" t="n">
-        <v>3</v>
-      </c>
-      <c r="V80" t="n">
-        <v>7.142857142857142</v>
-      </c>
-      <c r="W80" t="n">
-        <v>0.07142857142857142</v>
       </c>
       <c r="X80" t="n">
         <v>0</v>
@@ -11993,22 +11993,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="I81" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J81" t="n">
+        <v>12.82051282051282</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="L81" t="n">
+        <v>10</v>
+      </c>
+      <c r="M81" t="n">
         <v>25.64102564102564</v>
       </c>
-      <c r="K81" t="n">
+      <c r="N81" t="n">
         <v>0.2564102564102564</v>
-      </c>
-      <c r="L81" t="n">
-        <v>5</v>
-      </c>
-      <c r="M81" t="n">
-        <v>12.82051282051282</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.1282051282051282</v>
       </c>
       <c r="O81" t="n">
         <v>3</v>
@@ -12020,22 +12020,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="R81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S81" t="n">
+        <v>7.692307692307693</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
         <v>2.564102564102564</v>
       </c>
-      <c r="T81" t="n">
+      <c r="W81" t="n">
         <v>0.02564102564102564</v>
-      </c>
-      <c r="U81" t="n">
-        <v>3</v>
-      </c>
-      <c r="V81" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="W81" t="n">
-        <v>0.07692307692307693</v>
       </c>
       <c r="X81" t="n">
         <v>0</v>
@@ -12127,40 +12127,40 @@
         <v>0.103448275862069</v>
       </c>
       <c r="F82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
+        <v>3.448275862068965</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>6.896551724137931</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="L82" t="n">
+        <v>10</v>
+      </c>
+      <c r="M82" t="n">
+        <v>34.48275862068966</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="O82" t="n">
+        <v>3</v>
+      </c>
+      <c r="P82" t="n">
         <v>10.3448275862069</v>
       </c>
-      <c r="H82" t="n">
+      <c r="Q82" t="n">
         <v>0.103448275862069</v>
-      </c>
-      <c r="I82" t="n">
-        <v>10</v>
-      </c>
-      <c r="J82" t="n">
-        <v>34.48275862068966</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.3448275862068966</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2</v>
-      </c>
-      <c r="M82" t="n">
-        <v>6.896551724137931</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0.06896551724137931</v>
-      </c>
-      <c r="O82" t="n">
-        <v>1</v>
-      </c>
-      <c r="P82" t="n">
-        <v>3.448275862068965</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0.03448275862068965</v>
       </c>
       <c r="R82" t="n">
         <v>1</v>
@@ -12306,22 +12306,22 @@
         <v>0.08823529411764706</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S83" t="n">
-        <v>0</v>
+        <v>2.941176470588235</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="U83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>2.941176470588235</v>
+        <v>0</v>
       </c>
       <c r="W83" t="n">
-        <v>0.02941176470588235</v>
+        <v>0</v>
       </c>
       <c r="X83" t="n">
         <v>0</v>
@@ -12422,22 +12422,22 @@
         <v>0.1</v>
       </c>
       <c r="I84" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
+        <v>10</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>10</v>
+      </c>
+      <c r="M84" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="K84" t="n">
+      <c r="N84" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3</v>
-      </c>
-      <c r="M84" t="n">
-        <v>10</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0.1</v>
       </c>
       <c r="O84" t="n">
         <v>3</v>
@@ -12449,22 +12449,22 @@
         <v>0.1</v>
       </c>
       <c r="R84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S84" t="n">
+        <v>10</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="T84" t="n">
+      <c r="W84" t="n">
         <v>0.03333333333333333</v>
-      </c>
-      <c r="U84" t="n">
-        <v>3</v>
-      </c>
-      <c r="V84" t="n">
-        <v>10</v>
-      </c>
-      <c r="W84" t="n">
-        <v>0.1</v>
       </c>
       <c r="X84" t="n">
         <v>0</v>
@@ -12565,22 +12565,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="I85" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="L85" t="n">
+        <v>10</v>
+      </c>
+      <c r="M85" t="n">
         <v>30.3030303030303</v>
       </c>
-      <c r="K85" t="n">
+      <c r="N85" t="n">
         <v>0.303030303030303</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3</v>
-      </c>
-      <c r="M85" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.09090909090909091</v>
       </c>
       <c r="O85" t="n">
         <v>3</v>
@@ -12592,22 +12592,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="R85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S85" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="T85" t="n">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="U85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V85" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="X85" t="n">
         <v>0</v>
@@ -12699,58 +12699,58 @@
         <v>0.1379310344827586</v>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
+        <v>6.896551724137931</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.06896551724137931</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3.448275862068965</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="L86" t="n">
+        <v>10</v>
+      </c>
+      <c r="M86" t="n">
+        <v>34.48275862068966</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="O86" t="n">
+        <v>3</v>
+      </c>
+      <c r="P86" t="n">
         <v>10.3448275862069</v>
       </c>
-      <c r="H86" t="n">
+      <c r="Q86" t="n">
         <v>0.103448275862069</v>
       </c>
-      <c r="I86" t="n">
-        <v>10</v>
-      </c>
-      <c r="J86" t="n">
-        <v>34.48275862068966</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.3448275862068966</v>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="n">
-        <v>3.448275862068965</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="O86" t="n">
-        <v>2</v>
-      </c>
-      <c r="P86" t="n">
-        <v>6.896551724137931</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>0.06896551724137931</v>
-      </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S86" t="n">
-        <v>0</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="T86" t="n">
-        <v>0</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="U86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V86" t="n">
-        <v>10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="W86" t="n">
-        <v>0.103448275862069</v>
+        <v>0</v>
       </c>
       <c r="X86" t="n">
         <v>0</v>
@@ -12842,58 +12842,58 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="I87" t="n">
+        <v>4</v>
+      </c>
+      <c r="J87" t="n">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L87" t="n">
+        <v>10</v>
+      </c>
+      <c r="M87" t="n">
+        <v>27.77777777777778</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="O87" t="n">
+        <v>3</v>
+      </c>
+      <c r="P87" t="n">
         <v>8.333333333333332</v>
       </c>
-      <c r="H87" t="n">
+      <c r="Q87" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="I87" t="n">
-        <v>10</v>
-      </c>
-      <c r="J87" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="L87" t="n">
-        <v>4</v>
-      </c>
-      <c r="M87" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="O87" t="n">
-        <v>2</v>
-      </c>
-      <c r="P87" t="n">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0.05555555555555555</v>
-      </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="U87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V87" t="n">
-        <v>2.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="W87" t="n">
-        <v>0.02777777777777778</v>
+        <v>0</v>
       </c>
       <c r="X87" t="n">
         <v>0</v>
@@ -12985,58 +12985,58 @@
         <v>0.2045454545454546</v>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
+        <v>4.545454545454546</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="I88" t="n">
+        <v>11</v>
+      </c>
+      <c r="J88" t="n">
+        <v>25</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L88" t="n">
+        <v>10</v>
+      </c>
+      <c r="M88" t="n">
+        <v>22.72727272727273</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="O88" t="n">
+        <v>3</v>
+      </c>
+      <c r="P88" t="n">
         <v>6.818181818181817</v>
       </c>
-      <c r="H88" t="n">
+      <c r="Q88" t="n">
         <v>0.06818181818181818</v>
       </c>
-      <c r="I88" t="n">
-        <v>10</v>
-      </c>
-      <c r="J88" t="n">
-        <v>22.72727272727273</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.2272727272727273</v>
-      </c>
-      <c r="L88" t="n">
-        <v>11</v>
-      </c>
-      <c r="M88" t="n">
-        <v>25</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O88" t="n">
-        <v>2</v>
-      </c>
-      <c r="P88" t="n">
-        <v>4.545454545454546</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0.04545454545454546</v>
-      </c>
       <c r="R88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S88" t="n">
-        <v>0</v>
+        <v>6.818181818181817</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="U88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V88" t="n">
-        <v>6.818181818181817</v>
+        <v>0</v>
       </c>
       <c r="W88" t="n">
-        <v>0.06818181818181818</v>
+        <v>0</v>
       </c>
       <c r="X88" t="n">
         <v>0</v>
